--- a/media/files/dispositivos.xlsx
+++ b/media/files/dispositivos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66ECC292-FE1C-4078-BC9F-7A2100E92FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -402,9 +403,6 @@
     <t>IZL076</t>
   </si>
   <si>
-    <t>QUIRV</t>
-  </si>
-  <si>
     <t>10.131.80.167</t>
   </si>
   <si>
@@ -568,12 +566,15 @@
   </si>
   <si>
     <t>H2NB</t>
+  </si>
+  <si>
+    <t>QRFV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,6 +722,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -756,6 +774,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,19 +966,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -965,7 +1000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -976,7 +1011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -987,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -998,7 +1033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -1020,7 +1055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -1031,7 +1066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1042,18 +1077,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>103</v>
       </c>
@@ -1086,7 +1121,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -1097,7 +1132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -1119,7 +1154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1240,18 +1275,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1262,18 +1297,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1284,7 +1319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>115</v>
       </c>
@@ -1306,7 +1341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -1317,7 +1352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -1350,7 +1385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>118</v>
       </c>
@@ -1361,29 +1396,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -1394,18 +1429,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -1416,7 +1451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -1449,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
@@ -1460,232 +1495,232 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>145</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>146</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>166</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>167</v>
       </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>168</v>
-      </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1694,24 +1729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
